--- a/data/trans_orig/P37B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>37635</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22244</v>
+        <v>21904</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62386</v>
+        <v>62096</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09996495406996346</v>
+        <v>0.09996495406996347</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05908431641606515</v>
+        <v>0.05818044649041908</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1657076012885693</v>
+        <v>0.1649362517792702</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -762,19 +762,19 @@
         <v>24118</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12844</v>
+        <v>12923</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43654</v>
+        <v>41296</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07796901583244265</v>
+        <v>0.07796901583244266</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04152112609295064</v>
+        <v>0.04177666094148564</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1411241866040055</v>
+        <v>0.1335032990992964</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -783,19 +783,19 @@
         <v>61753</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42300</v>
+        <v>41176</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89212</v>
+        <v>93341</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09004392484442378</v>
+        <v>0.09004392484442379</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06167809453795341</v>
+        <v>0.06004032230616002</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1300819023010601</v>
+        <v>0.1361033317179236</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23449</v>
+        <v>21894</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01725844274643159</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06228361800914615</v>
+        <v>0.05815366023429189</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9171</v>
+        <v>8730</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.005579861107297617</v>
+        <v>0.005579861107297618</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02964787562986244</v>
+        <v>0.02822242598149452</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -854,19 +854,19 @@
         <v>8224</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1722</v>
+        <v>1701</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22659</v>
+        <v>22696</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01199094524286712</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002511343131436105</v>
+        <v>0.002479918214564926</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03303965929678355</v>
+        <v>0.03309433355741831</v>
       </c>
     </row>
     <row r="6">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10533</v>
+        <v>10237</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01088416488148366</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03405176566971261</v>
+        <v>0.03309564078852658</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10354</v>
+        <v>13588</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004909184446635488</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01509701075646695</v>
+        <v>0.01981294555392491</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>309114</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>279237</v>
+        <v>282567</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>330736</v>
+        <v>332301</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8210554070235599</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.741697051564962</v>
+        <v>0.7505423609156816</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8784872094167634</v>
+        <v>0.8826435443101623</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>150</v>
@@ -967,19 +967,19 @@
         <v>255177</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>235290</v>
+        <v>233441</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>272668</v>
+        <v>271657</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8249391178975454</v>
+        <v>0.8249391178975455</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7606498875158093</v>
+        <v>0.7546714017011676</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8814857211003969</v>
+        <v>0.8782160439476263</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>287</v>
@@ -988,19 +988,19 @@
         <v>564291</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>528825</v>
+        <v>532096</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>592190</v>
+        <v>595865</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8228071126643146</v>
+        <v>0.8228071126643147</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7710938925022508</v>
+        <v>0.7758627558139269</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8634877759751315</v>
+        <v>0.8688456635018608</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>23237</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10782</v>
+        <v>11125</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44117</v>
+        <v>44068</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06172119616004498</v>
+        <v>0.061721196160045</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02863807446226589</v>
+        <v>0.02954870734865585</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1171811420547507</v>
+        <v>0.1170523508833219</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -1038,19 +1038,19 @@
         <v>24940</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14177</v>
+        <v>14176</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38646</v>
+        <v>38972</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08062784028123066</v>
+        <v>0.08062784028123067</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04583058766433046</v>
+        <v>0.04582896978334369</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.124936254604722</v>
+        <v>0.1259896115567229</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -1059,19 +1059,19 @@
         <v>48177</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31655</v>
+        <v>30169</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>70420</v>
+        <v>73107</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.07024883280175899</v>
+        <v>0.07024883280175902</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04615633704822814</v>
+        <v>0.04398962326001524</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1026816546035014</v>
+        <v>0.106599783161262</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>30411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17888</v>
+        <v>18279</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50690</v>
+        <v>49064</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07486487301346839</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04403641625273216</v>
+        <v>0.04499858902805189</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1247880314043098</v>
+        <v>0.1207831150543669</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1184,19 +1184,19 @@
         <v>27192</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17650</v>
+        <v>17319</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40758</v>
+        <v>39962</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06665733408299486</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04326638914732939</v>
+        <v>0.04245646913245266</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09991346320930967</v>
+        <v>0.09796230338939246</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -1205,19 +1205,19 @@
         <v>57603</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40901</v>
+        <v>41293</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79972</v>
+        <v>79466</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07075244216776697</v>
+        <v>0.07075244216776695</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05023750946049185</v>
+        <v>0.05072018100825081</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09822848824817065</v>
+        <v>0.09760693828781328</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6288</v>
+        <v>5521</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002993249944703123</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01547854089015249</v>
+        <v>0.01359131972778528</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6220</v>
+        <v>6593</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.001493466208583696</v>
+        <v>0.001493466208583695</v>
       </c>
       <c r="V11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.007640314470326213</v>
+        <v>0.008097985204755537</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>13980</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6557</v>
+        <v>7107</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25338</v>
+        <v>26142</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03441567459641288</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01614064575786681</v>
+        <v>0.01749534333785505</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06237700989909942</v>
+        <v>0.06435480739843463</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1318,19 +1318,19 @@
         <v>8541</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3857</v>
+        <v>3710</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16891</v>
+        <v>16657</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02093703257078254</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009455592236110977</v>
+        <v>0.009094925336788188</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04140639046263327</v>
+        <v>0.04083174929259548</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -1339,19 +1339,19 @@
         <v>22521</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12923</v>
+        <v>13521</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34319</v>
+        <v>36684</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02766212963075143</v>
+        <v>0.02766212963075142</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01587354536591835</v>
+        <v>0.01660726160964607</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04215308776912995</v>
+        <v>0.04505876430121893</v>
       </c>
     </row>
     <row r="13">
@@ -1368,19 +1368,19 @@
         <v>335134</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>312218</v>
+        <v>312666</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>352659</v>
+        <v>354436</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8250221480329841</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7686088543732464</v>
+        <v>0.7697112983572763</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8681654498329027</v>
+        <v>0.8725399602563267</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>307</v>
@@ -1389,19 +1389,19 @@
         <v>334262</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>316871</v>
+        <v>316485</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>349582</v>
+        <v>348679</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8194070694942085</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7767756969570313</v>
+        <v>0.7758289169000954</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8569624175974405</v>
+        <v>0.8547507989655704</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>524</v>
@@ -1410,19 +1410,19 @@
         <v>669395</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>640941</v>
+        <v>644496</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>692189</v>
+        <v>694313</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8222086831954112</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7872585116051279</v>
+        <v>0.7916251389957829</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8502056978081598</v>
+        <v>0.8528139751623629</v>
       </c>
     </row>
     <row r="14">
@@ -1439,19 +1439,19 @@
         <v>25471</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15235</v>
+        <v>15577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39813</v>
+        <v>41727</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06270405441243156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03750445857461089</v>
+        <v>0.03834766986520413</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09800950860631288</v>
+        <v>0.1027229899483943</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>39</v>
@@ -1460,19 +1460,19 @@
         <v>37937</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27988</v>
+        <v>27058</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50555</v>
+        <v>50218</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09299856385201412</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0686106984443873</v>
+        <v>0.06632959467260383</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1239291186344723</v>
+        <v>0.1231053735095251</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>57</v>
@@ -1481,19 +1481,19 @@
         <v>63408</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>49546</v>
+        <v>50271</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>81810</v>
+        <v>81995</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07788327879748665</v>
+        <v>0.07788327879748662</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06085631224699029</v>
+        <v>0.06174683952396652</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.100486621419011</v>
+        <v>0.1007137622419484</v>
       </c>
     </row>
     <row r="15">
@@ -1585,19 +1585,19 @@
         <v>48003</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35903</v>
+        <v>35565</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65574</v>
+        <v>63082</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09315515459807353</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06967396402472188</v>
+        <v>0.06901785279081164</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1272554196247144</v>
+        <v>0.1224196341670235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -1606,19 +1606,19 @@
         <v>53852</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42479</v>
+        <v>42552</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67295</v>
+        <v>66198</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1048233880666008</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08268526547817785</v>
+        <v>0.08282779139996715</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1309891125317654</v>
+        <v>0.1288545015443562</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -1627,19 +1627,19 @@
         <v>101855</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84440</v>
+        <v>85143</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122694</v>
+        <v>124693</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0989804626670331</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08205669411915763</v>
+        <v>0.08274049378948388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1192313631073617</v>
+        <v>0.1211736976322976</v>
       </c>
     </row>
     <row r="17">
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5656</v>
+        <v>4926</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002351887816111513</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01097554097829933</v>
+        <v>0.009560156449281111</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1677,19 +1677,19 @@
         <v>2243</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5939</v>
+        <v>6665</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00436521994959912</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001427599969744109</v>
+        <v>0.001436291511574523</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01155958345672114</v>
+        <v>0.01297335265542323</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1698,19 +1698,19 @@
         <v>3455</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8717</v>
+        <v>8630</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.003357033963926921</v>
+        <v>0.003357033963926922</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0007384718604510087</v>
+        <v>0.0007416559524755007</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.008471062892309346</v>
+        <v>0.008386377266104524</v>
       </c>
     </row>
     <row r="18">
@@ -1727,19 +1727,19 @@
         <v>18351</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10335</v>
+        <v>10433</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28521</v>
+        <v>30423</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03561176341740398</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02005708812352567</v>
+        <v>0.02024748689599306</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05534880473733488</v>
+        <v>0.05903896558608056</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1748,19 +1748,19 @@
         <v>12757</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7543</v>
+        <v>7397</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20325</v>
+        <v>19971</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02483080885540032</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01468217603666855</v>
+        <v>0.0143987773091316</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03956297030187673</v>
+        <v>0.03887312750308649</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>32</v>
@@ -1769,19 +1769,19 @@
         <v>31107</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>21448</v>
+        <v>21488</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43188</v>
+        <v>43658</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.03022942497084104</v>
+        <v>0.03022942497084105</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02084227265201495</v>
+        <v>0.02088131652009722</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04196907917445735</v>
+        <v>0.04242635708098319</v>
       </c>
     </row>
     <row r="19">
@@ -1798,19 +1798,19 @@
         <v>414792</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>396038</v>
+        <v>395131</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>433395</v>
+        <v>434228</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8049570682796219</v>
+        <v>0.8049570682796218</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7685619092557471</v>
+        <v>0.7668016644234229</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8410586796579895</v>
+        <v>0.8426755569990151</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>553</v>
@@ -1819,19 +1819,19 @@
         <v>403254</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>385950</v>
+        <v>386018</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>418382</v>
+        <v>418513</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7849332730642203</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7512504592212506</v>
+        <v>0.7513831203189909</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8143796582306063</v>
+        <v>0.8146346795483549</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>926</v>
@@ -1840,19 +1840,19 @@
         <v>818046</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>791709</v>
+        <v>792139</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>841960</v>
+        <v>842844</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7949602871769724</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7693662176628718</v>
+        <v>0.7697842564330661</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8181992840170048</v>
+        <v>0.8190586527554661</v>
       </c>
     </row>
     <row r="20">
@@ -1869,19 +1869,19 @@
         <v>32940</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22723</v>
+        <v>22965</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45264</v>
+        <v>45678</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06392412588878914</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04409749808699457</v>
+        <v>0.04456574357080683</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08784027831346043</v>
+        <v>0.08864312979223046</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -1890,19 +1890,19 @@
         <v>41637</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32800</v>
+        <v>31689</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53462</v>
+        <v>52569</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08104731006417956</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06384484304211777</v>
+        <v>0.06168291036240769</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1040643163468072</v>
+        <v>0.1023247647967727</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>91</v>
@@ -1911,19 +1911,19 @@
         <v>74577</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>59842</v>
+        <v>59556</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>91341</v>
+        <v>89989</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.07247279122122638</v>
+        <v>0.07247279122122637</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05815352542506215</v>
+        <v>0.05787567886561205</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08876347892506517</v>
+        <v>0.08744923541292195</v>
       </c>
     </row>
     <row r="21">
@@ -2015,19 +2015,19 @@
         <v>52863</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38415</v>
+        <v>39734</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69423</v>
+        <v>70359</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09713276285473178</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07058532325607604</v>
+        <v>0.07300948337879649</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1275615466614166</v>
+        <v>0.1292803104307723</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>72</v>
@@ -2036,19 +2036,19 @@
         <v>49314</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39063</v>
+        <v>39528</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>60536</v>
+        <v>62010</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08815447812513824</v>
+        <v>0.08815447812513826</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06982971692333785</v>
+        <v>0.0706606987929092</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1082153628267423</v>
+        <v>0.1108513239085275</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>113</v>
@@ -2057,19 +2057,19 @@
         <v>102177</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84319</v>
+        <v>85765</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>122549</v>
+        <v>123625</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09258193052573735</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07640072996823721</v>
+        <v>0.07771171431864016</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1110415517227536</v>
+        <v>0.1120160051382536</v>
       </c>
     </row>
     <row r="23">
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4103</v>
+        <v>4417</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00158725593379839</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.007538293680638514</v>
+        <v>0.008116678601438963</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2107,19 +2107,19 @@
         <v>3485</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7328</v>
+        <v>8146</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.00623002103933197</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002471145820592952</v>
+        <v>0.002478158736485049</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0130999350850952</v>
+        <v>0.01456112232843389</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -2128,19 +2128,19 @@
         <v>4349</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1515</v>
+        <v>1559</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9311</v>
+        <v>9080</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003940539013421327</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001373101759519711</v>
+        <v>0.001412980930612417</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008436459204312385</v>
+        <v>0.008227324938841494</v>
       </c>
     </row>
     <row r="24">
@@ -2157,19 +2157,19 @@
         <v>24803</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16594</v>
+        <v>15708</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36857</v>
+        <v>36660</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04557396939009863</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03048995303502079</v>
+        <v>0.02886208575421855</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06772196922526515</v>
+        <v>0.0673612084734045</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -2178,19 +2178,19 @@
         <v>10592</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6219</v>
+        <v>6074</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17318</v>
+        <v>16959</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01893508404015586</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01111657334243966</v>
+        <v>0.01085724486934649</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03095773121151078</v>
+        <v>0.03031660118152667</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>38</v>
@@ -2199,19 +2199,19 @@
         <v>35395</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>25664</v>
+        <v>25349</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>47452</v>
+        <v>49403</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03207149043002403</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02325434981464942</v>
+        <v>0.02296846844329118</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04299627389662637</v>
+        <v>0.04476391933430229</v>
       </c>
     </row>
     <row r="25">
@@ -2228,19 +2228,19 @@
         <v>423189</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>402340</v>
+        <v>399990</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>442248</v>
+        <v>441562</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7775848155634829</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7392754446727624</v>
+        <v>0.7349579383234236</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8126049068194794</v>
+        <v>0.8113446186314431</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>697</v>
@@ -2249,19 +2249,19 @@
         <v>448921</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>434570</v>
+        <v>434512</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>463762</v>
+        <v>464853</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8025036334822203</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7768484302284009</v>
+        <v>0.7767449324925713</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8290338382727641</v>
+        <v>0.8309833607459064</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1106</v>
@@ -2270,19 +2270,19 @@
         <v>872109</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>847192</v>
+        <v>843884</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>896671</v>
+        <v>894553</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7902154421921007</v>
+        <v>0.7902154421921006</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7676374426857019</v>
+        <v>0.7646407995864302</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8124703588695256</v>
+        <v>0.8105517581207342</v>
       </c>
     </row>
     <row r="26">
@@ -2299,19 +2299,19 @@
         <v>42516</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>31404</v>
+        <v>31698</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>56629</v>
+        <v>55288</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07812119625788838</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05770275953657901</v>
+        <v>0.05824273162455981</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1040516476406406</v>
+        <v>0.1015879599147822</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>79</v>
@@ -2320,19 +2320,19 @@
         <v>47089</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37815</v>
+        <v>38033</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>58478</v>
+        <v>57607</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08417678331315356</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06759985396119098</v>
+        <v>0.06798884575574812</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1045368489918805</v>
+        <v>0.1029794578585273</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>124</v>
@@ -2341,19 +2341,19 @@
         <v>89605</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>74876</v>
+        <v>76218</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>105407</v>
+        <v>107552</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08119059783871667</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06784485454175086</v>
+        <v>0.06906051325435532</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09550850307755059</v>
+        <v>0.09745238991322203</v>
       </c>
     </row>
     <row r="27">
@@ -2445,19 +2445,19 @@
         <v>37178</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27060</v>
+        <v>26542</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50522</v>
+        <v>49740</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09909971213295272</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07212907985626152</v>
+        <v>0.07074944216518719</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1346668719567978</v>
+        <v>0.132584038404378</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>67</v>
@@ -2466,19 +2466,19 @@
         <v>43362</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33807</v>
+        <v>33905</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>52665</v>
+        <v>53425</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1176853724659839</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09175356319406618</v>
+        <v>0.09202101184093162</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1429363089438718</v>
+        <v>0.1449975240442967</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>104</v>
@@ -2487,19 +2487,19 @@
         <v>80540</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>66419</v>
+        <v>66985</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>97399</v>
+        <v>97008</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1083087152185305</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08931970407596264</v>
+        <v>0.09008092147040929</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1309813191100092</v>
+        <v>0.1304550929686641</v>
       </c>
     </row>
     <row r="29">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4718</v>
+        <v>5708</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.002516986316846576</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01257547549906598</v>
+        <v>0.01521523449124064</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2537,19 +2537,19 @@
         <v>6754</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3397</v>
+        <v>3401</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12112</v>
+        <v>11823</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01833059653707146</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009218626282624699</v>
+        <v>0.009231726456103652</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03287210443235592</v>
+        <v>0.03208882111877435</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -2558,19 +2558,19 @@
         <v>7698</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4105</v>
+        <v>4115</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13366</v>
+        <v>13839</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01035246715006505</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005520829911100894</v>
+        <v>0.005534160076366567</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01797468424008407</v>
+        <v>0.01861091877294934</v>
       </c>
     </row>
     <row r="30">
@@ -2587,19 +2587,19 @@
         <v>14956</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9122</v>
+        <v>8884</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>23608</v>
+        <v>23377</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0398645957815059</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02431392819729669</v>
+        <v>0.02368187182874504</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06292744582262663</v>
+        <v>0.06231138692945689</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -2608,19 +2608,19 @@
         <v>10210</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6262</v>
+        <v>6371</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16464</v>
+        <v>16867</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02770979912611572</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01699437752869723</v>
+        <v>0.01729056674434425</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04468333065623963</v>
+        <v>0.04577866666014746</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>32</v>
@@ -2629,19 +2629,19 @@
         <v>25165</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>17079</v>
+        <v>17445</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>35458</v>
+        <v>35411</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03384201934901158</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02296745985491198</v>
+        <v>0.02345966572941011</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04768306103629784</v>
+        <v>0.04762001491336758</v>
       </c>
     </row>
     <row r="31">
@@ -2658,19 +2658,19 @@
         <v>287542</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>269840</v>
+        <v>272303</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>301920</v>
+        <v>303733</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.7664510427817204</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.719265893803948</v>
+        <v>0.7258313390052473</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.8047753801201643</v>
+        <v>0.8096095514667689</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>462</v>
@@ -2679,19 +2679,19 @@
         <v>276343</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>263160</v>
+        <v>263124</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>287933</v>
+        <v>288616</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.750007697258088</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.7142304569939814</v>
+        <v>0.7141314888274499</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7814654413275237</v>
+        <v>0.783318593113669</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>773</v>
@@ -2700,19 +2700,19 @@
         <v>563884</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>542918</v>
+        <v>541273</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>583792</v>
+        <v>585085</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.758303534597939</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7301087435970689</v>
+        <v>0.7278959623159854</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7850756464279627</v>
+        <v>0.7868140714387178</v>
       </c>
     </row>
     <row r="32">
@@ -2729,19 +2729,19 @@
         <v>34540</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24498</v>
+        <v>25006</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>47149</v>
+        <v>46940</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.09206766298697443</v>
+        <v>0.09206766298697444</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06529887161229375</v>
+        <v>0.06665364296207288</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1256764607834557</v>
+        <v>0.1251186352586448</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>54</v>
@@ -2750,19 +2750,19 @@
         <v>31785</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>24080</v>
+        <v>24101</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>40778</v>
+        <v>40305</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08626653461274081</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06535395551653791</v>
+        <v>0.06541145560034559</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1106727061018912</v>
+        <v>0.1093903398878532</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>91</v>
@@ -2771,19 +2771,19 @@
         <v>66325</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>53223</v>
+        <v>53111</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>80295</v>
+        <v>80339</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08919326368445382</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07157358896706005</v>
+        <v>0.07142230532716007</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1079800853541426</v>
+        <v>0.1080390344776429</v>
       </c>
     </row>
     <row r="33">
@@ -2875,19 +2875,19 @@
         <v>17481</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11518</v>
+        <v>11441</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>25133</v>
+        <v>26089</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1578673713113154</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1040180348339586</v>
+        <v>0.1033184102271919</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2269615290156458</v>
+        <v>0.2355984239124855</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>48</v>
@@ -2896,19 +2896,19 @@
         <v>26289</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>19949</v>
+        <v>20023</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>33009</v>
+        <v>32875</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2394021210084398</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1816697923031655</v>
+        <v>0.182339469023144</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3005979546846885</v>
+        <v>0.2993821664634915</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>69</v>
@@ -2917,19 +2917,19 @@
         <v>43770</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>34632</v>
+        <v>35423</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>53172</v>
+        <v>55030</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1984637664587036</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1570281688019009</v>
+        <v>0.1606154150169448</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2410935767919762</v>
+        <v>0.249520375896205</v>
       </c>
     </row>
     <row r="35">
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6045</v>
+        <v>6055</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01577725592669942</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05459285556878241</v>
+        <v>0.05467689332697832</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>7</v>
@@ -2967,19 +2967,19 @@
         <v>4033</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1730</v>
+        <v>1895</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7625</v>
+        <v>7823</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03673082647625273</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01575572878043578</v>
+        <v>0.0172606484168031</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06944031514441754</v>
+        <v>0.07124171809636895</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>9</v>
@@ -2991,16 +2991,16 @@
         <v>2746</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10778</v>
+        <v>10416</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02621010122196548</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01244937244906699</v>
+        <v>0.01245238373579054</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04887041624280223</v>
+        <v>0.04722746271961254</v>
       </c>
     </row>
     <row r="36">
@@ -3017,19 +3017,19 @@
         <v>7402</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3663</v>
+        <v>3614</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12708</v>
+        <v>13168</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06684168015798346</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03308034170095906</v>
+        <v>0.03263460591841621</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1147563194307028</v>
+        <v>0.1189166036527015</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>15</v>
@@ -3038,19 +3038,19 @@
         <v>8540</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4832</v>
+        <v>4801</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>12966</v>
+        <v>13654</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.07777502963943042</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04400336727368763</v>
+        <v>0.04371743044221139</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.118074738142595</v>
+        <v>0.12434055346946</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>25</v>
@@ -3059,19 +3059,19 @@
         <v>15942</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10492</v>
+        <v>10683</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>23528</v>
+        <v>23230</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.07228542748635684</v>
+        <v>0.07228542748635683</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04757322726540925</v>
+        <v>0.04843901209645736</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1066815098047214</v>
+        <v>0.1053294714792154</v>
       </c>
     </row>
     <row r="37">
@@ -3088,19 +3088,19 @@
         <v>75168</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>66382</v>
+        <v>66604</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>83200</v>
+        <v>84018</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.6788105312359947</v>
+        <v>0.6788105312359948</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5994708203840753</v>
+        <v>0.601475447307488</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7513475910609836</v>
+        <v>0.7587321100535486</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>121</v>
@@ -3109,19 +3109,19 @@
         <v>63212</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>55277</v>
+        <v>55648</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>70884</v>
+        <v>70113</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5756512797446841</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5033877612937334</v>
+        <v>0.5067649079767741</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6455180891372008</v>
+        <v>0.6384906987258137</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>227</v>
@@ -3130,19 +3130,19 @@
         <v>138380</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>126647</v>
+        <v>126153</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>149746</v>
+        <v>149584</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.6274472321247972</v>
+        <v>0.627447232124797</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5742453831021822</v>
+        <v>0.5720077991124096</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6789821635417047</v>
+        <v>0.6782449873774686</v>
       </c>
     </row>
     <row r="38">
@@ -3159,19 +3159,19 @@
         <v>8937</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>4971</v>
+        <v>4638</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>16102</v>
+        <v>15299</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0807031613680069</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04489351735873257</v>
+        <v>0.04188404075345611</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1454083648207908</v>
+        <v>0.1381592030166218</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>15</v>
@@ -3180,19 +3180,19 @@
         <v>7735</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>4528</v>
+        <v>4530</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>13148</v>
+        <v>11786</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.07044074313119281</v>
+        <v>0.07044074313119279</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04123881183930467</v>
+        <v>0.04125435588982851</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.119732660916126</v>
+        <v>0.1073276034452553</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>26</v>
@@ -3201,19 +3201,19 @@
         <v>16672</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>11445</v>
+        <v>11055</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>24047</v>
+        <v>24519</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.075593472708177</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05189311806377138</v>
+        <v>0.05012499321503619</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1090352473648325</v>
+        <v>0.1111748552271007</v>
       </c>
     </row>
     <row r="39">
@@ -3305,19 +3305,19 @@
         <v>9749</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5902</v>
+        <v>5851</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>15078</v>
+        <v>15199</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2833594087897239</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1715420871666437</v>
+        <v>0.1700710873054729</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4382560160644106</v>
+        <v>0.4417883053296738</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>33</v>
@@ -3326,19 +3326,19 @@
         <v>18577</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>13405</v>
+        <v>13921</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>24743</v>
+        <v>24754</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3233288492134757</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2333164360496192</v>
+        <v>0.2422949186453113</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4306370142876355</v>
+        <v>0.4308365675543557</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>45</v>
@@ -3347,19 +3347,19 @@
         <v>28326</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>21676</v>
+        <v>21796</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>35262</v>
+        <v>36127</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.3083592808341294</v>
+        <v>0.3083592808341295</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2359718843049912</v>
+        <v>0.2372750296442608</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3838617830334345</v>
+        <v>0.3932842374892851</v>
       </c>
     </row>
     <row r="41">
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5011</v>
+        <v>5958</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03028737456768826</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.145644614005492</v>
+        <v>0.1731913360048619</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -3397,19 +3397,19 @@
         <v>3648</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1279</v>
+        <v>1222</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7344</v>
+        <v>7103</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.06349739943427184</v>
+        <v>0.06349739943427185</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02225507065162868</v>
+        <v>0.02126132922519519</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1278225874572702</v>
+        <v>0.1236175742189565</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>7</v>
@@ -3418,19 +3418,19 @@
         <v>4690</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1954</v>
+        <v>1916</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>9408</v>
+        <v>8937</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.05105940348412875</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02126643992057945</v>
+        <v>0.02085769074784578</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1024196475674531</v>
+        <v>0.09729225741741368</v>
       </c>
     </row>
     <row r="42">
@@ -3447,19 +3447,19 @@
         <v>4709</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2145</v>
+        <v>1659</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9368</v>
+        <v>8776</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.136862716214717</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.06234200556046653</v>
+        <v>0.04822569698994988</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.272285927158645</v>
+        <v>0.2550723041369085</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>12</v>
@@ -3468,19 +3468,19 @@
         <v>5749</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3250</v>
+        <v>3329</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>9937</v>
+        <v>9804</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.100058185487574</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05656823735238105</v>
+        <v>0.05794867315981978</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1729457433891196</v>
+        <v>0.1706278126117473</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>18</v>
@@ -3489,19 +3489,19 @@
         <v>10458</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6707</v>
+        <v>6490</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>16218</v>
+        <v>16038</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1138424149776199</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07301461738846061</v>
+        <v>0.07065442142586831</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1765509816111565</v>
+        <v>0.1745912643650742</v>
       </c>
     </row>
     <row r="43">
@@ -3518,19 +3518,19 @@
         <v>11517</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>7429</v>
+        <v>7390</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>16462</v>
+        <v>16507</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3347587844891023</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2159352671472579</v>
+        <v>0.2147946502464023</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4784803278868683</v>
+        <v>0.4798047100247753</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>39</v>
@@ -3539,19 +3539,19 @@
         <v>22081</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>16713</v>
+        <v>16255</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>28198</v>
+        <v>27191</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3843114980843822</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2908777024155917</v>
+        <v>0.2829127122157492</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4907744834067687</v>
+        <v>0.4732420546013712</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>56</v>
@@ -3560,19 +3560,19 @@
         <v>33598</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>26559</v>
+        <v>26616</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>40534</v>
+        <v>41011</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3657527510345762</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2891228370951344</v>
+        <v>0.2897461967812225</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4412605766694516</v>
+        <v>0.4464460604790015</v>
       </c>
     </row>
     <row r="44">
@@ -3589,19 +3589,19 @@
         <v>7388</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>3767</v>
+        <v>3897</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>11965</v>
+        <v>12052</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2147317159387684</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1094976761368053</v>
+        <v>0.11326415246713</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3477813343881997</v>
+        <v>0.3503153557586486</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>14</v>
@@ -3610,19 +3610,19 @@
         <v>7401</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>4447</v>
+        <v>4184</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>12251</v>
+        <v>11619</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1288040677802962</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.07739171678775462</v>
+        <v>0.07281892449647864</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2132201485695818</v>
+        <v>0.2022200983071953</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>25</v>
@@ -3631,19 +3631,19 @@
         <v>14788</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>10150</v>
+        <v>10020</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>21111</v>
+        <v>21469</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.1609861496695454</v>
+        <v>0.1609861496695455</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1104946429090565</v>
+        <v>0.1090739029263325</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2298126615935413</v>
+        <v>0.2337161785687401</v>
       </c>
     </row>
     <row r="45">
@@ -3735,19 +3735,19 @@
         <v>233320</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>199444</v>
+        <v>198192</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>270606</v>
+        <v>265603</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.09875872750723126</v>
+        <v>0.09875872750723128</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.08441967104333029</v>
+        <v>0.08389002550612497</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1145407252259511</v>
+        <v>0.112423172978816</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>323</v>
@@ -3756,19 +3756,19 @@
         <v>242703</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>216920</v>
+        <v>218745</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>270108</v>
+        <v>274964</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1043380351875231</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.09325381116986027</v>
+        <v>0.09403834229692393</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1161194775851485</v>
+        <v>0.1182071954804906</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>499</v>
@@ -3777,19 +3777,19 @@
         <v>476023</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>431273</v>
+        <v>432894</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>520507</v>
+        <v>520710</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1015267206397345</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.09198238718889386</v>
+        <v>0.09232807723021573</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1110143804032535</v>
+        <v>0.111057589545594</v>
       </c>
     </row>
     <row r="47">
@@ -3806,19 +3806,19 @@
         <v>13523</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>6140</v>
+        <v>5798</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>29246</v>
+        <v>28666</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.005723763132255925</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.002599086481070414</v>
+        <v>0.002454235774732017</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01237932282116826</v>
+        <v>0.01213359811160964</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>32</v>
@@ -3827,19 +3827,19 @@
         <v>21889</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>15193</v>
+        <v>15319</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>30531</v>
+        <v>31330</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.009410236223108456</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.00653140920946012</v>
+        <v>0.006585479339991883</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01312521153763573</v>
+        <v>0.01346895216092272</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>41</v>
@@ -3848,19 +3848,19 @@
         <v>35412</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>24215</v>
+        <v>24690</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>49398</v>
+        <v>50746</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.007552687576534676</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.005164602425965156</v>
+        <v>0.005265833012803192</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01053564197322268</v>
+        <v>0.01082310096976578</v>
       </c>
     </row>
     <row r="48">
@@ -3877,19 +3877,19 @@
         <v>84200</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>65425</v>
+        <v>67903</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>104572</v>
+        <v>105585</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.03563961828273011</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.02769265810299231</v>
+        <v>0.02874167755744633</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.04426273534394345</v>
+        <v>0.0446916606471902</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>85</v>
@@ -3898,19 +3898,19 @@
         <v>59756</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>47916</v>
+        <v>47450</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>74585</v>
+        <v>74025</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.02568900730151109</v>
+        <v>0.02568900730151108</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.02059915855034208</v>
+        <v>0.0203988953433638</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.03206406013299351</v>
+        <v>0.03182333410637025</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>164</v>
@@ -3919,19 +3919,19 @@
         <v>143955</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>122404</v>
+        <v>120988</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>171700</v>
+        <v>169445</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.03070294433705067</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.0261065095279716</v>
+        <v>0.0258044476734333</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.03662033921670121</v>
+        <v>0.03613942881263976</v>
       </c>
     </row>
     <row r="49">
@@ -3948,19 +3948,19 @@
         <v>1856456</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1807406</v>
+        <v>1809924</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1899455</v>
+        <v>1901782</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.7857924952814197</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.7650309525615271</v>
+        <v>0.7660965888871154</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.8039930523581506</v>
+        <v>0.8049778472897626</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2329</v>
@@ -3969,19 +3969,19 @@
         <v>1803249</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1764125</v>
+        <v>1761621</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1839914</v>
+        <v>1836512</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.7752170987424524</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.7583976813518861</v>
+        <v>0.7573213546987252</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.790979514610244</v>
+        <v>0.7895169034771291</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>3899</v>
@@ -3990,19 +3990,19 @@
         <v>3659705</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>3594760</v>
+        <v>3596901</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>3717626</v>
+        <v>3712621</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.7805458541799151</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.7666943230963744</v>
+        <v>0.7671510974435815</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.7928993117805313</v>
+        <v>0.7918318545868384</v>
       </c>
     </row>
     <row r="50">
@@ -4019,19 +4019,19 @@
         <v>175029</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>148622</v>
+        <v>147696</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>207309</v>
+        <v>205073</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.07408539579636297</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0629080996067066</v>
+        <v>0.06251624792123074</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.08774873613156497</v>
+        <v>0.08680258886983751</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>276</v>
@@ -4040,19 +4040,19 @@
         <v>198524</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>176543</v>
+        <v>175831</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>224480</v>
+        <v>225920</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.08534562254540509</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.07589603992968412</v>
+        <v>0.07558960874436496</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.09650398917882572</v>
+        <v>0.09712291789144162</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>438</v>
@@ -4061,19 +4061,19 @@
         <v>373553</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>339091</v>
+        <v>336546</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>416368</v>
+        <v>416074</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.07967179326676524</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.07232172993646278</v>
+        <v>0.0717789089275904</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.08880348550069886</v>
+        <v>0.08874078052020151</v>
       </c>
     </row>
     <row r="51">
